--- a/sourceData/fig4_DA.xlsx
+++ b/sourceData/fig4_DA.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="72">
   <si>
     <t>plot</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>immobile-preonset</t>
+  </si>
+  <si>
+    <t>https://github.com/katemartian/LHoutputsManuscript/blob/master/sourceData/Fig2_stats.ipynb</t>
   </si>
   <si>
     <t>immobile-onset</t>
@@ -261,17 +264,14 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="m-d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -280,12 +280,15 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -335,16 +338,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -353,10 +353,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -365,31 +365,34 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -699,10 +702,10 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -710,7 +713,7 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -734,65 +737,68 @@
       <c r="I2" s="2">
         <v>3.0</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>44326.0</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>4.257</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>0.0217</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>0.3333</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>1.5986</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>0.209</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="9">
         <v>0.9937</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="11">
+        <v>26</v>
+      </c>
+      <c r="M3" s="10">
         <v>5.3333</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>1.5986</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>3.336</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="9">
         <v>0.0024</v>
       </c>
     </row>
     <row r="4">
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="11">
+        <v>27</v>
+      </c>
+      <c r="M4" s="10">
         <v>7.0</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>1.5986</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>4.379</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>27</v>
+      <c r="P4" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -800,59 +806,59 @@
       <c r="I5" s="2">
         <v>3.0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>-0.6667</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>2.1038</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>-0.317</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="9">
         <v>0.979</v>
       </c>
     </row>
     <row r="6">
       <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="11">
+        <v>26</v>
+      </c>
+      <c r="M6" s="10">
         <v>-1.3333</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>2.1038</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <v>-0.634</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="9">
         <v>0.862</v>
       </c>
     </row>
     <row r="7">
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="11">
+        <v>27</v>
+      </c>
+      <c r="M7" s="10">
         <v>2.6667</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>2.1038</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>1.268</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="9">
         <v>0.441</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>29</v>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -861,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
@@ -872,67 +878,67 @@
       <c r="I8" s="2">
         <v>5.0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>44326.0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>26.78</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="L8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="11">
         <v>-1.8</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>1.34</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <v>-1.343</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>0.39</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12">
+        <v>26</v>
+      </c>
+      <c r="M9" s="11">
         <v>7.6</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>1.34</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <v>5.67</v>
       </c>
-      <c r="P9" s="14" t="s">
-        <v>33</v>
+      <c r="P9" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="12">
+        <v>27</v>
+      </c>
+      <c r="M10" s="11">
         <v>10.6</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>1.34</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="12">
         <v>7.908</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>33</v>
+      <c r="P10" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -942,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
@@ -956,65 +962,65 @@
       <c r="I11" s="2">
         <v>4.0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>44336.0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>44.026</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="L11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="11">
         <v>4.0</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>0.9129</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <v>4.382</v>
       </c>
-      <c r="P11" s="14" t="s">
-        <v>37</v>
+      <c r="P11" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="12">
+        <v>26</v>
+      </c>
+      <c r="M12" s="11">
         <v>8.0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>0.9129</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <v>8.764</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>38</v>
+      <c r="P12" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="12">
+        <v>27</v>
+      </c>
+      <c r="M13" s="11">
         <v>12.0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>0.9129</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>13.145</v>
       </c>
-      <c r="P13" s="14" t="s">
-        <v>38</v>
+      <c r="P13" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>24</v>
@@ -1022,68 +1028,68 @@
       <c r="I14" s="2">
         <v>3.0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>1.0</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>1.247</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>0.802</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="9">
         <v>0.761</v>
       </c>
     </row>
     <row r="15">
       <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="12">
+        <v>26</v>
+      </c>
+      <c r="M15" s="11">
         <v>2.0</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>1.247</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>1.604</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="9">
         <v>0.255</v>
       </c>
     </row>
     <row r="16">
       <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="12">
+        <v>27</v>
+      </c>
+      <c r="M16" s="11">
         <v>7.0</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>1.247</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>5.612</v>
       </c>
-      <c r="P16" s="14" t="s">
-        <v>27</v>
+      <c r="P16" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="B17" s="8" t="s">
-        <v>29</v>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
@@ -1094,68 +1100,68 @@
       <c r="I17" s="2">
         <v>5.0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>44336.0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>179.2</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="L17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="11">
         <v>-5.0</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>1.0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <v>-5.0</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>41</v>
+      <c r="P17" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="12">
+        <v>26</v>
+      </c>
+      <c r="M18" s="11">
         <v>5.0</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>1.0</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <v>5.0</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>42</v>
+      <c r="P18" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="12">
+        <v>27</v>
+      </c>
+      <c r="M19" s="11">
         <v>10.0</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <v>1.0</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <v>10.0</v>
       </c>
-      <c r="P19" s="14" t="s">
-        <v>43</v>
+      <c r="P19" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
@@ -1164,71 +1170,71 @@
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="16">
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2">
         <v>3.0</v>
       </c>
       <c r="J20" s="2">
         <v>5.0</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>32.308</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>2.03E-4</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>3.0</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>0.5774</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <v>5.196</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="F21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="I21" s="2">
         <v>4.0</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>4.0</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>0.9129</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <v>4.382</v>
       </c>
-      <c r="P21" s="14" t="s">
-        <v>49</v>
+      <c r="P21" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
@@ -1237,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>22</v>
@@ -1245,88 +1251,88 @@
       <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>52</v>
+      <c r="H22" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I22" s="2">
         <v>5.0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>44336.0</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>20.16</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="L22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="11">
         <v>6.0</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>1.528</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <v>3.928</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="15">
         <v>1.7E-4</v>
       </c>
     </row>
     <row r="23">
-      <c r="H23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="H23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="11">
         <v>-3.0</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>1.528</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <v>-1.964</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="15">
         <v>0.08994</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I24" s="2">
         <v>3.0</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>5.75</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <v>1.607</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="16">
         <v>3.577</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="15">
         <v>6.84E-4</v>
       </c>
     </row>
     <row r="25">
-      <c r="H25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="12">
+      <c r="H25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="11">
         <v>6.25</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>1.607</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="16">
         <v>3.889</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="15">
         <v>2.0E-4</v>
       </c>
     </row>
@@ -17874,76 +17880,79 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A2:A10"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="L8:L10"/>
     <mergeCell ref="L11:L16"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="Q2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17962,7 +17971,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -17971,18 +17980,18 @@
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="22">
         <v>0.09169213084397518</v>
@@ -17990,13 +17999,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="22">
         <v>0.1348442356839741</v>
@@ -18004,13 +18013,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="22">
         <v>0.3042382051273158</v>
@@ -18018,13 +18027,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="22">
         <v>-0.03726514634751465</v>
@@ -18032,13 +18041,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="22">
         <v>0.1918287965078511</v>
@@ -18046,13 +18055,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="22">
         <v>0.286305889933026</v>
@@ -18060,13 +18069,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="22">
         <v>-0.2920485235143597</v>
@@ -18074,13 +18083,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <v>0.05328316989793922</v>
@@ -18088,13 +18097,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="22">
         <v>0.4125873384507725</v>
@@ -18102,13 +18111,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="22">
         <v>0.4121333603472837</v>
@@ -18116,13 +18125,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="22">
         <v>0.112351452178407</v>
@@ -18130,13 +18139,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="22">
         <v>0.6479053842400191</v>
@@ -18144,13 +18153,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22">
         <v>-0.469200588684845</v>
@@ -18158,13 +18167,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22">
         <v>-0.1860532975048018</v>
@@ -18172,13 +18181,13 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="22">
         <v>-0.4099588064105277</v>
@@ -18186,13 +18195,13 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="22">
         <v>-0.44263706285239</v>
@@ -18200,13 +18209,13 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
         <v>-0.3520732977549731</v>
@@ -18214,13 +18223,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="22">
         <v>-0.3661290569680052</v>
@@ -18228,13 +18237,13 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="22">
         <v>0.4346636219724442</v>
@@ -18242,13 +18251,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="22">
         <v>-0.1270996243106687</v>
@@ -18256,13 +18265,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="22">
         <v>-0.1816554433545977</v>
@@ -18270,13 +18279,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="D23" s="22">
         <v>0.4878603472302942</v>
@@ -18284,13 +18293,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="22">
         <v>0.2384451668073093</v>
@@ -18298,13 +18307,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="22">
         <v>0.106217280731247</v>
@@ -19308,7 +19317,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -19317,18 +19326,18 @@
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="22">
         <v>0.1003386594921395</v>
@@ -19336,13 +19345,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="22">
         <v>0.01494371979608611</v>
@@ -19350,13 +19359,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="22">
         <v>-0.2404367779035579</v>
@@ -19364,13 +19373,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="22">
         <v>0.09768221890806543</v>
@@ -19378,13 +19387,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="22">
         <v>0.08345991364997477</v>
@@ -19392,13 +19401,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="22">
         <v>-0.1122990482260543</v>
@@ -19406,13 +19415,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="22">
         <v>0.319289031893323</v>
@@ -19420,13 +19429,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <v>0.06343486333138712</v>
@@ -19434,13 +19443,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="22">
         <v>0.08062051979405195</v>
@@ -19448,13 +19457,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="22">
         <v>0.8598796059328556</v>
@@ -19462,13 +19471,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="22">
         <v>0.522866971553152</v>
@@ -19476,13 +19485,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="22">
         <v>0.3952403956148527</v>
@@ -19490,13 +19499,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22">
         <v>-0.2974302745576645</v>
@@ -19504,13 +19513,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22">
         <v>-0.199136426842336</v>
@@ -19518,13 +19527,13 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="22">
         <v>-0.3629145265548058</v>
@@ -19532,13 +19541,13 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22">
         <v>-0.6022444866303536</v>
@@ -19546,13 +19555,13 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
         <v>-0.1725134692986481</v>
@@ -19560,13 +19569,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="22">
         <v>-0.1410256080943791</v>
@@ -19574,13 +19583,13 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="22">
         <v>0.09256216455064578</v>
@@ -19588,13 +19597,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="22">
         <v>-0.1479013554195846</v>
@@ -19602,13 +19611,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="22">
         <v>0.2154385774248246</v>
@@ -19616,13 +19625,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="22">
         <v>0.4204702787671595</v>
@@ -19630,13 +19639,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="22">
         <v>0.1396839302587778</v>
@@ -19644,13 +19653,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="22">
         <v>0.3202707689034299</v>
@@ -19658,13 +19667,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="22">
         <v>1.199441019919279</v>
@@ -19672,13 +19681,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="22">
         <v>0.7021288633017543</v>
@@ -19686,13 +19695,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="22">
         <v>0.6341330269392309</v>
@@ -19700,13 +19709,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="22">
         <v>0.8416981361013781</v>
@@ -20706,27 +20715,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="22">
         <v>0.03346150858594411</v>
@@ -20734,13 +20743,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="22">
         <v>0.05094507853245799</v>
@@ -20748,13 +20757,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="22">
         <v>0.0563881888653319</v>
@@ -20762,13 +20771,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="22">
         <v>0.04497982605013345</v>
@@ -20776,13 +20785,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="22">
         <v>0.03703097443687622</v>
@@ -20790,13 +20799,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="22">
         <v>0.03042579327733015</v>
@@ -20804,13 +20813,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="22">
         <v>0.03961950340833131</v>
@@ -20818,13 +20827,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="22">
         <v>0.04405447893491</v>
@@ -20832,13 +20841,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="22">
         <v>0.04228073568744876</v>
@@ -20846,13 +20855,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="22">
         <v>0.0437170419182812</v>
@@ -20860,13 +20869,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="22">
         <v>0.1238663982990057</v>
@@ -20874,13 +20883,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="22">
         <v>0.1350770197959571</v>
@@ -20888,13 +20897,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="22">
         <v>0.1380194295022908</v>
@@ -20902,13 +20911,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="22">
         <v>0.1459701851352915</v>
@@ -20916,13 +20925,13 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="22">
         <v>0.150986244307847</v>
@@ -20930,13 +20939,13 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="22">
         <v>0.1308630773281976</v>
@@ -20944,13 +20953,13 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="22">
         <v>0.203327976153042</v>
@@ -20958,13 +20967,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="22">
         <v>0.1472268620667167</v>
@@ -20972,13 +20981,13 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="22">
         <v>0.1652231792768092</v>
@@ -20986,13 +20995,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="22">
         <v>0.2821475256552494</v>
@@ -22000,27 +22009,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="22">
         <v>0.03142597287867179</v>
@@ -22028,13 +22037,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="22">
         <v>0.03662193073555246</v>
@@ -22042,13 +22051,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="22">
         <v>0.04084997225150983</v>
@@ -22056,13 +22065,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="22">
         <v>0.03138754875305658</v>
@@ -22070,13 +22079,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="22">
         <v>0.04612464775563466</v>
@@ -22084,13 +22093,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="22">
         <v>0.0139379697223499</v>
@@ -22098,13 +22107,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="22">
         <v>0.02277047435807311</v>
@@ -22112,13 +22121,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="22">
         <v>0.02718848523626609</v>
@@ -22126,13 +22135,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="22">
         <v>0.02290452225510535</v>
@@ -22140,13 +22149,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="22">
         <v>0.02939267082778971</v>
@@ -22154,13 +22163,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="22">
         <v>0.1123954692459917</v>
@@ -22168,13 +22177,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="22">
         <v>0.1335367473706391</v>
@@ -22182,13 +22191,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="22">
         <v>0.1113539841374776</v>
@@ -22196,13 +22205,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="22">
         <v>0.1070486053821982</v>
@@ -22210,13 +22219,13 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="22">
         <v>0.105975118419526</v>
@@ -22224,13 +22233,13 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="22">
         <v>0.2296900134794472</v>
@@ -22238,13 +22247,13 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="22">
         <v>0.2324099401865715</v>
@@ -22252,13 +22261,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="22">
         <v>0.1937462653957458</v>
@@ -22266,13 +22275,13 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="22">
         <v>0.1828220562860751</v>
@@ -22280,13 +22289,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="22">
         <v>0.1867102558253063</v>
@@ -23294,7 +23303,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -23303,18 +23312,18 @@
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="22">
         <v>-0.02274332426150994</v>
@@ -23322,13 +23331,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="22">
         <v>0.03213429230258485</v>
@@ -23336,13 +23345,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="22">
         <v>0.01666360123367062</v>
@@ -23350,13 +23359,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="22">
         <v>-0.04031223106903021</v>
@@ -23364,13 +23373,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="22">
         <v>1.283591938370738</v>
@@ -23378,13 +23387,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="22">
         <v>1.4237007355941</v>
@@ -23392,13 +23401,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="22">
         <v>0.5973642493517134</v>
@@ -23406,13 +23415,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="22">
         <v>2.450487925577823</v>
@@ -23420,13 +23429,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22">
         <v>0.02503276751407887</v>
@@ -23434,13 +23443,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="22">
         <v>-0.009633076955686073</v>
@@ -23448,13 +23457,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="22">
         <v>-0.01283012332006542</v>
@@ -23462,13 +23471,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="22">
         <v>1.956823884973353</v>
@@ -23476,13 +23485,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="22">
         <v>1.287910270112469</v>
@@ -23490,13 +23499,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="22">
         <v>1.684546629389143</v>
@@ -24505,7 +24514,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -24514,18 +24523,18 @@
         <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="22">
         <v>0.009572929643073012</v>
@@ -24533,13 +24542,13 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="22">
         <v>-0.009584684527405657</v>
@@ -24547,13 +24556,13 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="22">
         <v>8.694916009735678E-4</v>
@@ -24561,13 +24570,13 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="22">
         <v>0.009535578192367297</v>
@@ -24575,13 +24584,13 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="22">
         <v>0.9218373647238645</v>
@@ -24589,13 +24598,13 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="22">
         <v>1.189455020303596</v>
@@ -24603,13 +24612,13 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="22">
         <v>1.130236839545139</v>
@@ -24617,13 +24626,13 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <v>0.8965667890929087</v>
@@ -24631,13 +24640,13 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="22">
         <v>0.551274941659931</v>
@@ -24645,13 +24654,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="22">
         <v>2.067366401384992</v>
@@ -24659,13 +24668,13 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="22">
         <v>0.9076182839175762</v>
@@ -24673,13 +24682,13 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="22">
         <v>1.276304106081645</v>
@@ -24687,13 +24696,13 @@
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22">
         <v>0.01364782419053153</v>
@@ -24701,13 +24710,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="22">
         <v>-0.007492835219374903</v>
@@ -24715,13 +24724,13 @@
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="22">
         <v>0.03053575613796538</v>
@@ -24729,13 +24738,13 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="22">
         <v>-0.02136067932542746</v>
@@ -24743,13 +24752,13 @@
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="22">
         <v>0.01522860129966737</v>
@@ -24757,13 +24766,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="22">
         <v>0.6679501055857028</v>
@@ -24771,13 +24780,13 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="22">
         <v>0.9587704073918558</v>
@@ -24785,13 +24794,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="22">
         <v>0.7092178206458369</v>
@@ -24799,13 +24808,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="22">
         <v>1.448491883461933</v>
@@ -24813,13 +24822,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="22">
         <v>1.198940113945607</v>
@@ -24827,13 +24836,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="22">
         <v>-0.577619692280142</v>
@@ -24841,13 +24850,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="22">
         <v>-0.5270989538057217</v>
@@ -24855,13 +24864,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="22">
         <v>-0.2996679395269373</v>
@@ -24869,13 +24878,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="22">
         <v>0.5014828215517946</v>
@@ -24883,13 +24892,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="22">
         <v>-0.9943746476982782</v>
